--- a/20240710_cubic_r2.xlsx
+++ b/20240710_cubic_r2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaden/Documents/KimLab_CSU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E047277D-6D5A-D94E-9EEE-A2D6BC2F35E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEA9C47-81B6-F743-9D12-B2E6499EFA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,13 +105,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -128,21 +121,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color theme="0"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,12 +147,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -224,29 +205,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="4" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -565,13 +546,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -656,7 +643,7 @@
         <v>0.85485433851218628</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -716,7 +703,7 @@
       <c r="G4">
         <v>0.33365460043594158</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="7">
         <v>0.89437281546374492</v>
       </c>
       <c r="I4">
@@ -871,7 +858,7 @@
       <c r="C8">
         <v>2.141464381945957E-2</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>0.90006547953912941</v>
       </c>
       <c r="E8">
